--- a/docs/LATEST/doc/_downloads/nablarch5u12-releasenote.xlsx
+++ b/docs/LATEST/doc/_downloads/nablarch5u12-releasenote.xlsx
@@ -1,83 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D112B8-B66F-4DC7-971E-B6C9C10A0C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="7080" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5u12" sheetId="2" r:id="rId2"/>
-    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId3"/>
-    <sheet name="NumberRangeの対応方法" sheetId="4" r:id="rId4"/>
-    <sheet name="データベースアクセスの型変換機能削除の対応方法" sheetId="6" r:id="rId5"/>
+    <sheet name="5u12" sheetId="2" r:id="rId1"/>
+    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId2"/>
+    <sheet name="NumberRangeの対応方法" sheetId="4" r:id="rId3"/>
+    <sheet name="データベースアクセスの型変換機能削除の対応方法" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u12'!$A$4:$O$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'5u12'!$A$1:$O$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">NumberRangeの対応方法!$A$1:$E$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$D$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'5u12'!$4:$5</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$A$6:$O$34</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'5u12'!$A$1:$O$34</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u12'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'5u12'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'5u12'!$A$1:$M$34</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u12'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'5u12'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'5u12'!$C$6:$M$34</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'5u12'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$A$6:$O$34</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u12'!$A$1:$O$34</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u12'!#REF!</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$E$1:$E$34</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$A$6:$O$34</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$E$1:$E$34</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$A$6:$O$34</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'5u12'!$A$1:$O$34</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u12'!#REF!</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$A$6:$O$34</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$A$6:$O$34</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$E$1:$E$34</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$E$1:$E$34</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'5u12'!$A$1:$O$34</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u12'!#REF!</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$A$6:$O$34</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'5u12'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'5u12'!$C$6:$M$34</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'5u12'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$A$6:$O$34</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$A$6:$O$34</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$A$6:$O$34</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'5u12'!$A$6:$O$34</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5u12'!$A$1:$O$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">NumberRangeの対応方法!$A$1:$E$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">バージョンアップ手順!$A$1:$D$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'5u12'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="325">
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="257">
   <si>
     <t>参照先</t>
     <rPh sb="0" eb="2">
@@ -86,237 +47,21 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>リリース
@@ -324,14 +69,14 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>■バージョンアップ手順</t>
     <rPh sb="9" eb="11">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>適用手順</t>
@@ -341,15 +86,15 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>本リリースの適用手順は、次の通りです。</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>-</t>
@@ -362,29 +107,29 @@
     <rPh sb="0" eb="3">
       <t>カイセツショ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ETL基盤</t>
   </si>
   <si>
     <t>APIドキュメント</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ブランクプロジェクト</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Nablarch開発標準</t>
@@ -394,15 +139,15 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジュン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>アプリケーション開発標準</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Example</t>
@@ -410,15 +155,15 @@
   </si>
   <si>
     <t>コンテンツ</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>修正後のバージョン
@@ -429,7 +174,7 @@
     <rPh sb="2" eb="3">
       <t>アト</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>FBシステム
@@ -438,15 +183,15 @@
     <rPh sb="11" eb="13">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>システムへの
@@ -458,7 +203,7 @@
     <rPh sb="10" eb="13">
       <t>カノウセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>システムへの影響の可能性の内容と対処</t>
@@ -474,38 +219,38 @@
     <rPh sb="16" eb="18">
       <t>タイショ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>■Nablarch 5u12 リリースノート</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>不具合</t>
     <rPh sb="0" eb="3">
       <t>フグアイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-192</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>データベースアクセス(JDBCラッパー)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>nablarch-core-jdbc 1.3.1</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-193</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>JSR310(Date and Time API)アダプタ</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>対応している型を明記</t>
@@ -518,7 +263,7 @@
     <rPh sb="8" eb="10">
       <t>メイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Date and Time APIの全ての型を扱えるような記述となっていたため、LocalDate&amp;LocalDateTimeのみに対応している事を明記しました。</t>
@@ -543,19 +288,19 @@
     <rPh sb="74" eb="76">
       <t>メイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u12</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-195</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>セルへの特殊な記述方法での半角記号の扱いを見直し</t>
@@ -571,23 +316,23 @@
     <rPh sb="21" eb="23">
       <t>ミナオ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>nablarch-testing 1.1.2</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-196</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>「コンポーネント設定ファイル」の表記ゆれを修正</t>
@@ -600,19 +345,19 @@
     <rPh sb="21" eb="23">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-200</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u12</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>HTTPメッセージング</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>「HTTPメッセージング」ライブラリを推奨しない機能に変更</t>
@@ -625,32 +370,32 @@
     <rPh sb="27" eb="29">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u12</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/system_messaging/http_system_messaging.html</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">NAB-199
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-198</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>汎用データフォーマット</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>XML作成処理の性能改善</t>
@@ -663,38 +408,38 @@
     <rPh sb="10" eb="12">
       <t>カイゼン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>nablarch-core-dataformat 1.2.1</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-202</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>不具合</t>
     <rPh sb="0" eb="3">
       <t>フグ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>MOMによるメッセージング</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>nablarch-fw-messaging-mom 1.0.3</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-203</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>マスタデータ投入ツール</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>gsp-dba-maven-pluginの使用を推奨に変更</t>
@@ -707,31 +452,31 @@
     <rPh sb="27" eb="29">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-201</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/LATEST/doc/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/index.html</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u12</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>nablarch-fw-messaging-http 1.0.3</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-204</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-205</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>トランザクション設定例の記載誤りを修正</t>
@@ -750,55 +495,55 @@
     <rPh sb="17" eb="19">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>データベースアクセス</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-206</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u11からの変更点を記載しています。</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u6</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>メッセージ管理</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>nablarch-core 1.3.1</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-207</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/message.html#message-change-formatter</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ウェブアプリケーション</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-209</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>システムリポジトリ</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-210</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>コンポーネントのインスタンス生成単位やライフサイクルを追記</t>
@@ -811,15 +556,15 @@
     <rPh sb="27" eb="29">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u12</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>データベースアクセス(JDBCラッパー)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>フレームワーク専用APIであることをJavadocに追記</t>
@@ -829,7 +574,7 @@
     <rPh sb="26" eb="28">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>nablarch.core.db.support.ListSearchInfo#setResultCountはフレームワーク専用であることを明記しました。</t>
@@ -839,23 +584,23 @@
     <rPh sb="70" eb="72">
       <t>メイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-212</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-213</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ユニバーサルDAO</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ユニバーサルDAOの別トランザクション機能の制約を明記</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ユニバーサルDAOで「現在のトランザクションとは異なるトランザクションで実行する」機能がありますが、別トランザクションを使用する場合でもデフォルトのトランザクションが開始していなければならないという制約事項があるため、この制約を明記しました。</t>
@@ -883,11 +628,11 @@
     <rPh sb="114" eb="116">
       <t>メイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-211</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>xmlに定義したコンポーネントのライフサイクルやインスタンスの生成単位について追記しました。</t>
@@ -903,11 +648,11 @@
     <rPh sb="39" eb="41">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>SQLコーディング規約</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>select *禁止規約の内容を変更</t>
@@ -923,11 +668,11 @@
     <rPh sb="16" eb="18">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u12</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>コンポーネントの上書きはBeanのみ(mapやlistは対象外)であることを明記</t>
@@ -940,7 +685,7 @@
     <rPh sb="38" eb="40">
       <t>メイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>コンポーネントの上書き機能は、Beanのみを対象としたもの(mapやlistは対象外)であることを明記しました。</t>
@@ -959,20 +704,20 @@
     <rPh sb="49" eb="51">
       <t>メイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-214</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u9</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">NAB-215
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>JSR352バッチと通常のNablarchとのアーキテクチャ相違点を追記</t>
@@ -985,11 +730,11 @@
     <rPh sb="34" eb="36">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>JSR352に準拠したバッチアプリケーション</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>JSR352に準拠したバッチアプリケーションは、それ以外のNablarchアプリケーションと異なり、ハンドラキューを用いたアーキテクチャではない点を明記しました。</t>
@@ -1008,11 +753,11 @@
     <rPh sb="74" eb="76">
       <t>メイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-217</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Temporalアノテーションを使用して、日付型の永続化対象の型を判断しているとの記載となっていましたが、実際にはTemporalアノテーションは使用せずにデータベースのメタ情報を元に判断しているため記載内容を修正しました。</t>
@@ -1061,11 +806,11 @@
     <rPh sb="105" eb="107">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>BeanUtil</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>BeanUtilの章を汎用ユーティリティから分離</t>
@@ -1078,29 +823,29 @@
     <rPh sb="22" eb="24">
       <t>ブンリ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-216</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NTFでデフォルトで提供する「タイプ識別子とデータ型」の対応を記載しました。</t>
     <rPh sb="31" eb="33">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>解説書上BeanUtilの説明がどこにあるか分かりづらいため、ライブラリ配下にBeanUtilの章を追加しました。</t>
@@ -1122,15 +867,15 @@
     <rPh sb="50" eb="52">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-218</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>JSR352に準拠したバッチプロジェクト</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ブランクプロジェクトの稼働確認用ソースコードのコンパイルエラーに対応</t>
@@ -1140,31 +885,31 @@
     <rPh sb="32" eb="34">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u12</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u11</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-220</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>RESTfulウェブサービス</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-221</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ETL Mavenプラグイン</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NTFで複数メッセージ(複数リクエストID)を送信するする際の書き方がわかりにくかったため、説明を追記しました。</t>
@@ -1183,38 +928,38 @@
     <rPh sb="49" eb="51">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-219</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NTF(HTTP同期応答メッセージ送信)で複数メッセージ(複数リクエストID)を送信する場合のテストデータの書き方を解説書に追記</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NTFでデフォルトで提供する「タイプ識別子とデータ型」の対応を解説書に記載</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-224</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>mavenのビルドを再実行する</t>
     <rPh sb="10" eb="13">
       <t>サイジッコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u12に書き換える</t>
@@ -1227,11 +972,11 @@
     <rPh sb="69" eb="70">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Nablarch独自のバリデーション(Nablarch Validation)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>String配列に対するバリデーションで実行時例外が発生する可能性がある問題に対応</t>
@@ -1259,7 +1004,7 @@
     <rPh sb="39" eb="41">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>CLOBカラムの登録(更新)、参照を行えるように対応しました。</t>
@@ -1278,7 +1023,7 @@
     <rPh sb="24" eb="26">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>カラムの型がCLOBの場合に登録(更新)や取得が行えない問題に対応</t>
@@ -1306,7 +1051,7 @@
     <rPh sb="31" eb="33">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>JMSヘッダに値が設定されない問題に対応</t>
@@ -1316,7 +1061,7 @@
     <rPh sb="18" eb="20">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">JMSを使用してメッセージ送信する場合、nablarch.fw.messaging.SendingMessageのヘッダに設定した値がJMSのMessageに引き継がれない場合がありました。この問題に対応しました。
@@ -1352,7 +1097,7 @@
     <rPh sb="156" eb="158">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">要素数が1つのString配列に対するバリデーションで、配列内の値がnullの場合、NullPointerExceptionが発生し、バリデーションが正常に行えない不具合がありました。
@@ -1443,7 +1188,7 @@
     <rPh sb="229" eb="232">
       <t>ミニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">XML作成時、データ形式によっては処理時間が増大することがありました(ネストが深く、属性数が多いXMLの場合)。この問題に対応しました。
@@ -1487,7 +1232,7 @@
     <rPh sb="61" eb="63">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>送信時のデフォルトContent-Typeを修正</t>
@@ -1497,7 +1242,7 @@
     <rPh sb="22" eb="24">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">送信時に設定するデフォルトのContent-Typeが「text/plane」となっていましたが、正しくは「text/plain」のため修正しました。
@@ -1514,7 +1259,7 @@
     <rPh sb="68" eb="70">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NumberRangeが少数有りの場合(小数部桁数が大きい場合)にバリデーションが正しく行えない問題に対応</t>
@@ -1530,50 +1275,50 @@
     <rPh sb="51" eb="53">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更例:</t>
   </si>
   <si>
     <t>NumberRangeは整数専用となります。</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>DecimalRangeを使用するよう変更する必要があります。</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>このため、NumberRangeのminまたはmax属性に小数部ありの値を使用している箇所は</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>メッセージ定義については、NumberRangeValidatorで使用していたメッセージと同じものを、</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>DecimalRangeValidatorに設定することで、今までと同じメッセージが画面上に表示されるようになります。</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>なお、DecimalRangeを使用するためには、ValidationManagerにDecimalRangeValidatorの追加が必要となります。</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>設定方法は、解説書(下のリンク)を参照してください。</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/validation/nablarch_validation.html#nablarch-validation-definition-validator-convertor</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>　変更前:@NumberRange(min=0.0001, max=0.9999)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>　変更後:@DecimalRange(min="0.0001", max="0.9999")</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>■NumberRangeの対応方法</t>
@@ -1583,7 +1328,7 @@
     <rPh sb="15" eb="17">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>記載内容が多いため、別シートに記載しています。「NumberRangeの対応方法」シートを参照ください。</t>
@@ -1605,7 +1350,7 @@
     <rPh sb="45" eb="47">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">小数部が15桁など非常に大きい値が入力された場合、丸められた値を使用してバリデーションを行っていました。これにより、エラーとなるべき値がバリデーションOKとなっていました。また、許容する値に桁数が大きい値が指定されると、エラーメッセージ内の許容する最大値が指数表現となる問題がありました。
@@ -1710,7 +1455,7 @@
     <rPh sb="211" eb="213">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u6で変更となったメッセージフォーマット機能に5u5以前と同じ仕様のフォーマッタを追加</t>
@@ -1732,7 +1477,7 @@
     <rPh sb="42" eb="44">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">5u6でメッセージのフォーマット方法を変更しましたが、過去バージョンを利用しているユーザが旧仕様のフォーマットを利用できない問題がありました。このため、旧仕様と同じ仕様のフォーマットを追加しました。
@@ -1807,7 +1552,7 @@
     <rPh sb="187" eb="189">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>アダプタ</t>
@@ -1818,7 +1563,7 @@
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">「コンポーネント設定ファイル」という文言に一部表記ゆれがありましたので、文言を統一しました。
@@ -1841,7 +1586,7 @@
     <rPh sb="39" eb="41">
       <t>トウイツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">ウェブサービス編では「RESTfulウェブサービス」の使用を推奨していましたが、ライブラリの章に同等の記述が不足していたため追加しました。
@@ -1895,7 +1640,7 @@
     <rPh sb="153" eb="155">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>「HTTPメッセージング」を推奨できない理由に追記</t>
@@ -1908,7 +1653,7 @@
     <rPh sb="23" eb="25">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">HTTPメッセージングを推奨出来ない理由に、リクエストボディパース時の例外制御を細かく実施出来ないことを追記しました。
@@ -1943,24 +1688,24 @@
     <rPh sb="52" eb="54">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/LATEST/javadoc/nablarch/core/db/support/ListSearchInfo.html#setResultCount-int-
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/web_service/index.html
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">【JDBCラッパー】 https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database/database.html#clob
 【ユニバーサルDAO】
 https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database/universal_dao.html#id15
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">【JDBCラッパー】
@@ -1968,7 +1713,7 @@
 【ユニバーサルDAO】
 https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database/universal_dao.html#universal-dao-transaction
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">トランザクションの設定例が誤っている箇所が2箇所ありました。
@@ -1987,23 +1732,23 @@
     <rPh sb="22" eb="24">
       <t>カショ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/repository.html#java-beans
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database/universal_dao.html#universal-dao-transaction
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/repository.html#repository-override-bean
 https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/repository.html#listmap
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Temporalアノテーションが使用可能となっていましたが使用していないため記述を削除</t>
@@ -2019,17 +1764,17 @@
     <rPh sb="41" eb="43">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database/universal_dao.html#entityjpa
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/bean_util.html
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">生成したブランクプロジェクトの稼働確認用ソースコードのコンパイルエラーに対応しました。
@@ -2043,12 +1788,12 @@
     <rPh sb="36" eb="38">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/LATEST/doc/application_framework/adaptors/jsr310_adaptor.html
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">セルへの特殊な記述方法で、「半角記号」を使用した場合、「半角記号」の文字種にカンマが含まれるため、文字列生成後に当該セルが配列とみなされるという不具合がありました。
@@ -2142,7 +1887,7 @@
     <rPh sb="203" eb="204">
       <t>ジョウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">推奨するプロジェクト構成(maven archetypeを使用してブランクプロジェクトを作成した場合)では、gsp-dba-maven-pluginを使用してデータベースのセットアップ及びデータ投入を行う方針としています。
@@ -2206,26 +1951,26 @@
     <rPh sb="181" eb="183">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/LATEST/doc/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/batch.html
 https://nablarch.github.io/docs/LATEST/doc/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/send_sync.html
 https://nablarch.github.io/docs/LATEST/doc/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/send_sync.html
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/nablarch/architecture.html
 https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/batch/jsr352/index.html
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/LATEST/doc/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/http_send_sync.html
 https://nablarch.github.io/docs/LATEST/doc/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/send_sync.html
 </t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">「select *」の禁止は必須となっていましたが、全てのカラムを取得したい場合(UniversalDaoを使用した場合)はこの限りではないとの但し書きを追記しました。
@@ -2263,80 +2008,80 @@
     <rPh sb="77" eb="79">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ソースコード</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>モジュール</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Nablarch</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>1.0.3</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u8</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>1.1.1</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>1.4.0</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>1.2.2</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u12</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>nablarch-etl-maven-plugin 1.0.1</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>nablarch-core-validation 1.0.4</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NumberRangeの該当箇所はコンパイルエラーにより検知可能です。</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>あり(本番)</t>
     <rPh sb="3" eb="5">
       <t>ホンバン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>不具合の起因バージョン
 （※2）</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>JIRA issue
 (※5)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">プロジェクト一覧のソートプルダウンと実際のソート結果が一致するように変更
@@ -2356,7 +2101,7 @@
     <rPh sb="34" eb="36">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト一覧(ログイン後に表示される画面)で、プルダウンで選択されているソート項目と実際にソートされている項目が一致していなかったため、一致するように変更しました。</t>
@@ -2393,7 +2138,7 @@
     <rPh sb="77" eb="79">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">コンテキストパス指定時に顧客検索が動作するように変更
@@ -2413,7 +2158,7 @@
     <rPh sb="24" eb="26">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>コンテキストパスを指定した場合でも顧客選択ダイアログを使用して顧客検索が動作するよう変更しました。</t>
@@ -2444,7 +2189,7 @@
     <rPh sb="42" eb="44">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ProjectUpdateFormのsetterで引数の値ではなく、自身のフィールドの関係のない値を設定していたため変更しました。</t>
@@ -2469,7 +2214,7 @@
     <rPh sb="58" eb="60">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>nablarch-etlの最新バージョンに対応</t>
@@ -2479,7 +2224,7 @@
     <rPh sb="21" eb="23">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">ProjectUpdateFormのsetterを適切な実装に変更
@@ -2493,7 +2238,7 @@
     <rPh sb="31" eb="33">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-etlの最新バージョン(1.2.0)でも動作するよう変更しました。
@@ -2507,23 +2252,23 @@
     <rPh sb="35" eb="37">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>nablarch-core-validation 1.0.4
 nablarch-main-default-configuration 1.0.6</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>データベースアクセス(JDBCラッパー)
 ユニバーサルDAO</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>【データベースアクセス】https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database/database.html#id13
 【ユニバーサルDAO】
 https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database/universal_dao.html#id8</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>No8.ユニバーサルDAO及びデータベースアクセスの型変換方法を5u8時点の仕様に変更のアプリケーション影響とその対応方法</t>
@@ -2536,7 +2281,7 @@
     <rPh sb="59" eb="61">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>①EntityでLocalDate及びLocalDateTimeを使用している場合</t>
@@ -2549,7 +2294,7 @@
     <rPh sb="39" eb="41">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>gsp-dba-maven-pluginで、Entityの型にLocalDate及びLocalDateTimeを使用する設定としている場合、</t>
@@ -2568,7 +2313,7 @@
     <rPh sb="67" eb="69">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ユニバーサルDAO及びデータベースアクセス機能を使用時に対応していない型として例外が送出されるようになります。</t>
@@ -2593,7 +2338,7 @@
     <rPh sb="42" eb="44">
       <t>ソウシュツ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>バージョンアップで発生する問題</t>
@@ -2603,7 +2348,7 @@
     <rPh sb="13" eb="15">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>対応方法</t>
@@ -2613,7 +2358,7 @@
     <rPh sb="2" eb="4">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>gsp-dba-maven-pluginでLocalDate及びLocalDateTimeを使用しないよう設定を変更する必要があります。</t>
@@ -2632,7 +2377,7 @@
     <rPh sb="60" eb="62">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>gsp-dba-maven-pluginに対する以下設定を削除するか、設定値をfalseに変更してください。</t>
@@ -2651,7 +2396,7 @@
     <rPh sb="45" eb="47">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>②型変換インタフェース(nablarch.core.db.dialect.converter.AttributeConverter)の実装クラスを作成している場合</t>
@@ -2667,7 +2412,7 @@
     <rPh sb="79" eb="81">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u8の仕様に戻したため、AttributeConverterインタフェースを削除しています。</t>
@@ -2680,7 +2425,7 @@
     <rPh sb="39" eb="41">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>このため、AttributeConverterインタフェース実装クラスを作成している場合、コンパイルエラーが発生します。</t>
@@ -2696,7 +2441,7 @@
     <rPh sb="54" eb="56">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>③Entityや検索条件オブジェクトにjava.util.Dateを使用している場合</t>
@@ -2712,7 +2457,7 @@
     <rPh sb="40" eb="42">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>また、AttributeConverterインタフェースの実装クラスで行っていた型変換処理を</t>
@@ -2725,7 +2470,7 @@
     <rPh sb="40" eb="45">
       <t>カタヘンカンショリ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Entityのjava.util.Date型のプロパティには@Temporalアノテーションを設定するようにしてください。</t>
@@ -2735,7 +2480,7 @@
     <rPh sb="47" eb="49">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ユニバーサルDAOのCRUD機能以外(SQLが自動生成されない機能)やデータベースアクセス機能を使用している場合には、</t>
@@ -2757,7 +2502,7 @@
     <rPh sb="54" eb="56">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -2808,19 +2553,19 @@
     <t>nablarch-core-jdbc 1.3.1
 nablarch-common-dao 1.4.1
 nablarch-jsr310-adaptor 1.0.1</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>1.2.0
 1.4.0
 1.0.0</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u9
 5u9
 5u11</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ユニバーサルDAO及びJDBCラッパーの型変換方法を一貫性がある仕様に修正</t>
@@ -2842,7 +2587,7 @@
     <rPh sb="35" eb="37">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>データベースアクセスの型変換機能は、UniversalDaoとJDBCラッパーの型変換ルールを統一するために追加した機能でしたが、逆に使用するデータベース製品によっては、型変換ルールに一貫性がなくなるなど混乱を招く仕様となっていました。
@@ -2853,7 +2598,7 @@
     <rPh sb="128" eb="130">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5u8以前のバージョンから5u12にバージョンアップする場合には影響はありません
@@ -2885,11 +2630,11 @@
     <rPh sb="99" eb="100">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>NAB-223</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>・gsp-dba-maven-pluginの設定変更しEntityを再生成</t>
@@ -2905,7 +2650,7 @@
     <rPh sb="35" eb="37">
       <t>セイセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>・PJで作成したAttributeConverterインタフェース実装クラスを削除</t>
@@ -2915,11 +2660,11 @@
     <rPh sb="39" eb="41">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>　java.util.DateがそのままJDBCのAPIに渡されるため、JDBCの実装によっては実行時エラーが発生します。</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>・Entityに@Temporalアノテーションを付与(gsp-dba-maven-plugin使用時は不要)</t>
@@ -2935,11 +2680,11 @@
     <rPh sb="52" eb="54">
       <t>フヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>(gsp-dba-maven-pluginを使用している場合は、自動的に設定されるため影響はありません）</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>・データベースのカラム型変更、Entity再生成(Oracleの場合)</t>
@@ -2958,7 +2703,7 @@
     <rPh sb="32" eb="34">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Oracleデータベース使用時、java.util.Dateの時間情報が切り捨てられます。</t>
@@ -2974,7 +2719,7 @@
     <rPh sb="38" eb="39">
       <t>ス</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>時間情報を保持する必要がある場合には、データベースのカラム型をDATE型ではなく適切な型(Timestamp)とする必要があります。</t>
@@ -2993,7 +2738,7 @@
     <rPh sb="35" eb="36">
       <t>ガタ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>この場合、ObjectBrowser上で型を変更し、テーブル再作成およびEntity再生成をしてください。</t>
@@ -3018,7 +2763,7 @@
     <rPh sb="43" eb="45">
       <t>セイセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>・API呼び出しにjava.util.Dateを使用している箇所のソースコードを修正</t>
@@ -3037,14 +2782,14 @@
     <rPh sb="40" eb="42">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>これらの機能のAPI呼び出しに、java.util.Dateではなく、適切な型(java.sql.Dateやjava.sql.Timestamp)で値を渡すようにソースコードを修正してください。</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>例えば以下のような修正を施します。</t>
@@ -3060,7 +2805,7 @@
     <rPh sb="12" eb="13">
       <t>ホドコ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>・APIを呼び出す前にアプリケーション側でjava.util.Dateを適切な型に変換する</t>
@@ -3073,7 +2818,7 @@
     <rPh sb="9" eb="10">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>・java.util.Dateの使用をやめてjava.sql.Dateやjava.sql.Timestampを使用する</t>
@@ -3083,7 +2828,7 @@
     <rPh sb="55" eb="57">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>コンパイルエラーが発生しているAttributeConverterインタフェースの実装クラスを削除してください。</t>
@@ -3096,11 +2841,11 @@
     <rPh sb="47" eb="49">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ユニバーサルDAO及びデータベースアクセス機能を呼び出す前にアプリケーション側で行うようソースコードを変更する必要があります。</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>・ユニバーサルDAOのCRUD機能(SQLが自動生成される機能)を使用した場合は、@Temporalアノテーションが参照されるようになります。</t>
@@ -3122,7 +2867,7 @@
     <rPh sb="58" eb="60">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>・ユニバーサルDAOの上記以外の機能及びデータベースアクセス機能を使用した場合、</t>
@@ -3144,7 +2889,7 @@
     <rPh sb="37" eb="39">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">  Oracleデータベースを使用している場合で@TemporalにDATEを指定している場合は、java.util.Dateの時間情報が切り捨てられるようになります(0時0分0秒になります)。</t>
@@ -3169,35 +2914,19 @@
     <rPh sb="71" eb="72">
       <t>ス</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3550,7 +3279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -3562,7 +3291,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3648,259 +3377,250 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
-    <cellStyle name="標準 2 2 2" xfId="4"/>
-    <cellStyle name="標準 2 2 2 2" xfId="9"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="17"/>
-    <cellStyle name="標準 2 2 2 2 2 2" xfId="18"/>
-    <cellStyle name="標準 2 2 2 2 3" xfId="19"/>
-    <cellStyle name="標準 2 2 2 3" xfId="13"/>
-    <cellStyle name="標準 2 2 2 3 2" xfId="20"/>
-    <cellStyle name="標準 2 2 2 4" xfId="21"/>
-    <cellStyle name="標準 2 2 3" xfId="7"/>
-    <cellStyle name="標準 2 2 3 2" xfId="15"/>
-    <cellStyle name="標準 2 2 3 2 2" xfId="22"/>
-    <cellStyle name="標準 2 2 3 3" xfId="23"/>
-    <cellStyle name="標準 2 2 4" xfId="11"/>
-    <cellStyle name="標準 2 2 4 2" xfId="24"/>
-    <cellStyle name="標準 2 2 5" xfId="25"/>
-    <cellStyle name="標準 2 3" xfId="3"/>
-    <cellStyle name="標準 2 3 2" xfId="8"/>
-    <cellStyle name="標準 2 3 2 2" xfId="16"/>
-    <cellStyle name="標準 2 3 2 2 2" xfId="26"/>
-    <cellStyle name="標準 2 3 2 3" xfId="27"/>
-    <cellStyle name="標準 2 3 3" xfId="12"/>
-    <cellStyle name="標準 2 3 3 2" xfId="28"/>
-    <cellStyle name="標準 2 3 4" xfId="29"/>
-    <cellStyle name="標準 2 4" xfId="6"/>
-    <cellStyle name="標準 2 4 2" xfId="14"/>
-    <cellStyle name="標準 2 4 2 2" xfId="30"/>
-    <cellStyle name="標準 2 4 3" xfId="31"/>
-    <cellStyle name="標準 2 5" xfId="10"/>
-    <cellStyle name="標準 2 5 2" xfId="32"/>
-    <cellStyle name="標準 2 6" xfId="33"/>
-    <cellStyle name="標準 3" xfId="5"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 2 2 2 2 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 2 2 2 2 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 2 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準 2 2 2 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準 2 2 2 4" xfId="21" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="標準 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="標準 2 2 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="標準 2 2 3 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="標準 2 2 3 3" xfId="23" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="標準 2 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="標準 2 2 4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="標準 2 2 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="標準 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="標準 2 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="標準 2 3 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="標準 2 3 2 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="標準 2 3 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="標準 2 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="標準 2 3 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="標準 2 3 4" xfId="29" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="標準 2 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="標準 2 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="標準 2 4 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="標準 2 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="標準 2 5 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="標準 2 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -4000,6 +3720,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4021,7 +3744,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4323,7 +4052,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4531,7 +4266,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4573,7 +4308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4606,9 +4341,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4641,6 +4393,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4816,370 +4585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5187,15 +4593,15 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="31" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="31" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -5207,1613 +4613,1613 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="7" customFormat="1" ht="19.5">
-      <c r="A1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:126" s="8" customFormat="1" ht="19.5">
-      <c r="A2" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:126" s="9" customFormat="1" ht="110.25" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="AP3" s="10"/>
-      <c r="DV3" s="11"/>
-    </row>
-    <row r="4" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="64" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-    </row>
-    <row r="6" spans="1:126" ht="21">
-      <c r="A6" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
-    </row>
-    <row r="7" spans="1:126" s="12" customFormat="1" ht="132">
-      <c r="A7" s="14"/>
-      <c r="B7" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="25">
+    <row r="1" spans="1:126" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:126" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:126" s="6" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="AP3" s="7"/>
+      <c r="DV3" s="8"/>
+    </row>
+    <row r="4" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="25">
+      <c r="H4" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" s="68"/>
+      <c r="K4" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+    </row>
+    <row r="6" spans="1:126" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:126" s="9" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="22">
         <v>15237</v>
       </c>
-      <c r="O7" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="P7" s="38"/>
-    </row>
-    <row r="8" spans="1:126" s="12" customFormat="1" ht="132">
-      <c r="A8" s="14"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="25">
+      <c r="O7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="35"/>
+    </row>
+    <row r="8" spans="1:126" s="9" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="22">
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="25">
+      <c r="D8" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="22">
         <v>15273</v>
       </c>
-      <c r="O8" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="P8" s="38"/>
-    </row>
-    <row r="9" spans="1:126" s="12" customFormat="1" ht="168">
-      <c r="A9" s="14"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="25">
+      <c r="O8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:126" s="9" customFormat="1" ht="168" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="22">
         <f t="shared" ref="C9:C26" si="0">C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="N9" s="25">
+      <c r="D9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="N9" s="22">
         <v>15230</v>
       </c>
-      <c r="O9" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="P9" s="38"/>
-    </row>
-    <row r="10" spans="1:126" s="12" customFormat="1" ht="72">
-      <c r="A10" s="14"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="25">
+      <c r="O9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="35"/>
+    </row>
+    <row r="10" spans="1:126" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="22">
         <f>C9+1</f>
         <v>4</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="25">
+      <c r="D10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="22">
         <v>15289</v>
       </c>
-      <c r="O10" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" s="38"/>
-    </row>
-    <row r="11" spans="1:126" s="12" customFormat="1" ht="108">
-      <c r="A11" s="14"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="25">
+      <c r="O10" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="1:126" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="22">
         <f>C10+1</f>
         <v>5</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="25">
+      <c r="D11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="22">
         <v>15293</v>
       </c>
-      <c r="O11" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="P11" s="38"/>
-    </row>
-    <row r="12" spans="1:126" s="12" customFormat="1" ht="60">
-      <c r="A12" s="14"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="25">
+      <c r="O11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="35"/>
+    </row>
+    <row r="12" spans="1:126" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="22">
         <f>C11+1</f>
         <v>6</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" s="25">
+      <c r="D12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="22">
         <v>15275</v>
       </c>
-      <c r="O12" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="P12" s="38"/>
-    </row>
-    <row r="13" spans="1:126" s="12" customFormat="1" ht="120">
-      <c r="A13" s="14"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="25">
+      <c r="O12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="35"/>
+    </row>
+    <row r="13" spans="1:126" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="22">
         <f>C12+1</f>
         <v>7</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="25" t="s">
+      <c r="D13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J13" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="N13" s="25">
+      <c r="K13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="22">
         <v>15257</v>
       </c>
-      <c r="O13" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="P13" s="38"/>
-    </row>
-    <row r="14" spans="1:126" s="12" customFormat="1" ht="120">
-      <c r="A14" s="14"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="25">
+      <c r="O13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="35"/>
+    </row>
+    <row r="14" spans="1:126" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="22">
         <f>C13+1</f>
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="N14" s="25">
+      <c r="D14" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="N14" s="22">
         <v>15225</v>
       </c>
-      <c r="O14" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="P14" s="38"/>
-    </row>
-    <row r="15" spans="1:126" s="12" customFormat="1" ht="84">
-      <c r="A15" s="14"/>
-      <c r="B15" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="25">
+      <c r="O14" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:126" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="N15" s="25">
+      <c r="D15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N15" s="22">
         <v>15024</v>
       </c>
-      <c r="O15" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="P15" s="38"/>
-    </row>
-    <row r="16" spans="1:126" s="12" customFormat="1" ht="60">
-      <c r="A16" s="14"/>
-      <c r="B16" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="25">
+      <c r="O15" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:126" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" s="25">
+      <c r="D16" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="22">
         <v>15219</v>
       </c>
-      <c r="O16" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="P16" s="38"/>
-    </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="108">
-      <c r="A17" s="14"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="25">
+      <c r="O16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="35"/>
+    </row>
+    <row r="17" spans="1:16" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="N17" s="25">
+      <c r="D17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="22">
         <v>15196</v>
       </c>
-      <c r="O17" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="38"/>
-    </row>
-    <row r="18" spans="1:16" s="12" customFormat="1" ht="84">
-      <c r="A18" s="14"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="25">
+      <c r="O17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="N18" s="25">
+      <c r="D18" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N18" s="22">
         <v>14562</v>
       </c>
-      <c r="O18" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="P18" s="38"/>
-    </row>
-    <row r="19" spans="1:16" s="12" customFormat="1" ht="180">
-      <c r="A19" s="14"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="25">
+      <c r="O18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="35"/>
+    </row>
+    <row r="19" spans="1:16" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="25" t="s">
+      <c r="D19" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="N19" s="25">
+      <c r="K19" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="N19" s="22">
         <v>15209</v>
       </c>
-      <c r="O19" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="P19" s="38"/>
-    </row>
-    <row r="20" spans="1:16" s="12" customFormat="1" ht="84">
-      <c r="A20" s="14"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="25">
+      <c r="O19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="35"/>
+    </row>
+    <row r="20" spans="1:16" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="25" t="s">
+      <c r="D20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L20" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="N20" s="25">
+      <c r="G20" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="N20" s="22">
         <v>15281</v>
       </c>
-      <c r="O20" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="P20" s="38"/>
-    </row>
-    <row r="21" spans="1:16" s="12" customFormat="1" ht="96">
-      <c r="A21" s="14"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="25">
+      <c r="O20" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" s="35"/>
+    </row>
+    <row r="21" spans="1:16" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="N21" s="25">
+      <c r="D21" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N21" s="22">
         <v>15241</v>
       </c>
-      <c r="O21" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="P21" s="38"/>
-    </row>
-    <row r="22" spans="1:16" s="12" customFormat="1" ht="156">
-      <c r="A22" s="14"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="25">
+      <c r="O21" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="35"/>
+    </row>
+    <row r="22" spans="1:16" s="9" customFormat="1" ht="156" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="N22" s="25">
+      <c r="D22" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="N22" s="22">
         <v>15228</v>
       </c>
-      <c r="O22" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="P22" s="38"/>
-    </row>
-    <row r="23" spans="1:16" s="12" customFormat="1" ht="96">
-      <c r="A23" s="14"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="25">
+      <c r="O22" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="35"/>
+    </row>
+    <row r="23" spans="1:16" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="G23" s="25" t="s">
+      <c r="D23" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H23" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="N23" s="25">
+      <c r="N23" s="22">
         <v>15222</v>
       </c>
-      <c r="O23" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="P23" s="38"/>
-    </row>
-    <row r="24" spans="1:16" s="12" customFormat="1" ht="144">
-      <c r="A24" s="14"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="25">
+      <c r="O23" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" s="35"/>
+    </row>
+    <row r="24" spans="1:16" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="25" t="s">
+      <c r="D24" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M24" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="N24" s="25">
+      <c r="E24" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" s="22">
         <v>15221</v>
       </c>
-      <c r="O24" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="P24" s="38"/>
-    </row>
-    <row r="25" spans="1:16" s="12" customFormat="1" ht="84">
-      <c r="A25" s="14"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="25">
+      <c r="O24" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="35"/>
+    </row>
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="N25" s="25">
+      <c r="N25" s="22">
         <v>15187</v>
       </c>
-      <c r="O25" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="P25" s="38"/>
-    </row>
-    <row r="26" spans="1:16" s="12" customFormat="1" ht="60">
-      <c r="A26" s="14"/>
-      <c r="B26" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="25">
+      <c r="O25" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="35"/>
+    </row>
+    <row r="26" spans="1:16" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N26" s="25">
+      <c r="D26" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="22">
         <v>15291</v>
       </c>
-      <c r="O26" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="P26" s="38"/>
-    </row>
-    <row r="27" spans="1:16" s="12" customFormat="1" ht="21">
-      <c r="A27" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="38"/>
-    </row>
-    <row r="28" spans="1:16" s="12" customFormat="1" ht="72">
-      <c r="A28" s="14"/>
-      <c r="B28" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="25">
+      <c r="O26" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="35"/>
+    </row>
+    <row r="27" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A27" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="35"/>
+    </row>
+    <row r="28" spans="1:16" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="22">
         <f>C26+1</f>
         <v>21</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="N28" s="25">
+      <c r="D28" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="N28" s="22">
         <v>15252</v>
       </c>
-      <c r="O28" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="P28" s="38"/>
-    </row>
-    <row r="29" spans="1:16" s="12" customFormat="1" ht="21">
-      <c r="A29" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="38"/>
-    </row>
-    <row r="30" spans="1:16" s="12" customFormat="1" ht="84">
-      <c r="A30" s="14"/>
-      <c r="B30" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="25">
+      <c r="O28" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A29" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="35"/>
+    </row>
+    <row r="30" spans="1:16" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="22">
         <f>C28+1</f>
         <v>22</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="28" t="s">
+      <c r="D30" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="22">
+        <v>15288</v>
+      </c>
+      <c r="O30" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L30" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N30" s="25">
-        <v>15288</v>
-      </c>
-      <c r="O30" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="P30" s="38"/>
-    </row>
-    <row r="31" spans="1:16" s="12" customFormat="1" ht="72">
-      <c r="A31" s="14"/>
-      <c r="B31" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="25">
+      <c r="P30" s="35"/>
+    </row>
+    <row r="31" spans="1:16" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="22">
         <f>C30+1</f>
         <v>23</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="K31" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L31" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M31" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N31" s="25">
+      <c r="D31" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="22">
         <v>15183</v>
       </c>
-      <c r="O31" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="P31" s="38"/>
-    </row>
-    <row r="32" spans="1:16" s="12" customFormat="1" ht="72">
-      <c r="A32" s="14"/>
-      <c r="B32" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="25">
+      <c r="O31" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" s="35"/>
+    </row>
+    <row r="32" spans="1:16" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="22">
         <f>C31+1</f>
         <v>24</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" s="25">
+      <c r="D32" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="22">
         <v>15303</v>
       </c>
-      <c r="O32" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="P32" s="38"/>
-    </row>
-    <row r="33" spans="1:16" s="12" customFormat="1" ht="21">
-      <c r="A33" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="38"/>
-    </row>
-    <row r="34" spans="1:16" s="12" customFormat="1" ht="60">
-      <c r="A34" s="14"/>
-      <c r="B34" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="25">
+      <c r="O32" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" s="35"/>
+    </row>
+    <row r="33" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A33" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="35"/>
+    </row>
+    <row r="34" spans="1:16" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
+      <c r="B34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="22">
         <f>C32+1</f>
         <v>25</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="O34" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="P34" s="38"/>
-    </row>
-    <row r="35" spans="1:16" s="12" customFormat="1" ht="21">
-      <c r="A35" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="38"/>
-    </row>
-    <row r="36" spans="1:16" s="12" customFormat="1" ht="216">
-      <c r="A36" s="14"/>
-      <c r="B36" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C36" s="25">
+      <c r="D34" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="P34" s="35"/>
+    </row>
+    <row r="35" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A35" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="35"/>
+    </row>
+    <row r="36" spans="1:16" s="9" customFormat="1" ht="216" x14ac:dyDescent="0.15">
+      <c r="A36" s="11"/>
+      <c r="B36" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="22">
         <f>C34+1</f>
         <v>26</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N36" s="25">
+      <c r="D36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="22">
         <v>15263</v>
       </c>
-      <c r="O36" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="P36" s="38"/>
-    </row>
-    <row r="37" spans="1:16" s="12" customFormat="1" ht="120">
-      <c r="A37" s="14"/>
-      <c r="B37" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="25">
+      <c r="O36" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="35"/>
+    </row>
+    <row r="37" spans="1:16" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A37" s="11"/>
+      <c r="B37" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="22">
         <f>C36+1</f>
         <v>27</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L37" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M37" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="N37" s="25">
+      <c r="D37" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37" s="22">
         <v>15178</v>
       </c>
-      <c r="O37" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="P37" s="38"/>
-    </row>
-    <row r="38" spans="1:16" s="12" customFormat="1" ht="240">
-      <c r="A38" s="14"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="25">
+      <c r="O37" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" s="35"/>
+    </row>
+    <row r="38" spans="1:16" s="9" customFormat="1" ht="240" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="22">
         <f t="shared" ref="C38:C39" si="1">C37+1</f>
         <v>28</v>
       </c>
-      <c r="D38" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="G38" s="25" t="s">
+      <c r="D38" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="H38" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K38" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L38" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M38" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="N38" s="25">
+      <c r="N38" s="22">
         <v>13725</v>
       </c>
-      <c r="O38" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="P38" s="38"/>
-    </row>
-    <row r="39" spans="1:16" s="12" customFormat="1" ht="180">
-      <c r="A39" s="14"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="25">
+      <c r="O38" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="P38" s="35"/>
+    </row>
+    <row r="39" spans="1:16" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.15">
+      <c r="A39" s="11"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="22">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L39" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="M39" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="N39" s="25">
+      <c r="D39" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M39" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="N39" s="22">
         <v>15045</v>
       </c>
-      <c r="O39" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="P39" s="38"/>
-    </row>
-    <row r="40" spans="1:16" s="12" customFormat="1" ht="21">
-      <c r="A40" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="38"/>
-    </row>
-    <row r="41" spans="1:16" s="12" customFormat="1" ht="72">
-      <c r="A41" s="42"/>
-      <c r="B41" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="25">
+      <c r="O39" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="P39" s="35"/>
+    </row>
+    <row r="40" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A40" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:16" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A41" s="39"/>
+      <c r="B41" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="22">
         <f>C39+1</f>
         <v>30</v>
       </c>
-      <c r="D41" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L41" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M41" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N41" s="25">
+      <c r="D41" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="22">
         <v>15235</v>
       </c>
-      <c r="O41" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="P41" s="38"/>
+      <c r="O41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:O41">
+  <autoFilter ref="A4:O41" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
   </autoFilter>
-  <sortState ref="C8:P16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:P16">
     <sortCondition descending="1" ref="M8:M16"/>
   </sortState>
   <mergeCells count="13">
@@ -6831,7 +6237,7 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G40">
     <cfRule type="expression" dxfId="11" priority="16">
       <formula>#REF!="完了"</formula>
@@ -6906,8 +6312,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6917,99 +6323,191 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="3.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="3.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20">
+      <c r="C5" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="C6" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="3" max="9" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="82.625" style="16" customWidth="1"/>
+    <col min="3" max="11" width="3.5" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -7019,310 +6517,219 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="82.625" style="19" customWidth="1"/>
-    <col min="3" max="11" width="3.5" style="19" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="18" customFormat="1" ht="19.5">
-      <c r="A1" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="28.5">
-      <c r="B18" s="54" t="s">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="3" max="9" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="55"/>
+    <col min="1" max="16384" width="2.625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="55" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="A3" s="56" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="B4" s="57" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C5" s="56" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C6" s="56" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="56" customFormat="1" ht="14.25"/>
-    <row r="8" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="B8" s="57" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="B9" s="56" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C10" s="56" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C11" s="56" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C12" s="58" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="56" customFormat="1" ht="14.25"/>
-    <row r="14" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="A14" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="B15" s="57" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C16" s="56" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C17" s="56" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="56" customFormat="1" ht="14.25"/>
-    <row r="19" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="B19" s="57" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="B20" s="56" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C21" s="56" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C22" s="56" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C23" s="56" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="56" customFormat="1" ht="14.25"/>
-    <row r="25" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="A25" s="56" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="B26" s="57" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C27" s="56" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C28" s="56" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C29" s="56" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="C30" s="56" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="56" customFormat="1" ht="14.25"/>
-    <row r="32" spans="1:3" s="56" customFormat="1" ht="14.25">
-      <c r="B32" s="57" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" s="56" customFormat="1" ht="14.25">
-      <c r="B33" s="56" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" s="56" customFormat="1" ht="14.25">
-      <c r="C34" s="56" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="56" customFormat="1" ht="14.25">
-      <c r="C35" s="56" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" s="56" customFormat="1" ht="14.25">
-      <c r="B36" s="56" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="56" customFormat="1" ht="14.25">
-      <c r="C37" s="56" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" s="56" customFormat="1" ht="14.25">
-      <c r="C38" s="56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" s="56" customFormat="1" ht="14.25">
-      <c r="C39" s="56" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="56" customFormat="1" ht="14.25">
-      <c r="B40" s="56" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="C41" s="59" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="C42" s="56" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="C43" s="56" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="D44" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="D45" s="56" t="s">
-        <v>319</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="53" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="54" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C5" s="53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C6" s="53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B8" s="54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B9" s="53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C10" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C11" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C12" s="55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B15" s="54" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C16" s="53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C17" s="53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B19" s="54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B20" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C21" s="53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C22" s="53" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C23" s="53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="54" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C27" s="53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C28" s="53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C29" s="53" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C30" s="53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:3" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B32" s="54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="53" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C34" s="53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C35" s="53" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="53" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C37" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C38" s="53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C39" s="53" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B40" s="53" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C41" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C42" s="53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C43" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D44" s="53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D45" s="53" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
